--- a/data/trans_orig/P1414-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1414-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E4A29DC-FFE6-4CF7-8E18-49B246323A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E23B456-E341-4A55-AE95-22C908D48F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1B0C7885-1459-4E9E-AF14-A7052CDEAF94}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7979B76B-3C69-4C11-A9FE-3CB176C9F4AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="215">
   <si>
     <t>Población con diagnóstico de fibromialgia en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -79,25 +79,25 @@
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,93%</t>
+    <t>0,88%</t>
   </si>
   <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
   </si>
   <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,7 +106,7 @@
     <t>99,67%</t>
   </si>
   <si>
-    <t>99,07%</t>
+    <t>99,12%</t>
   </si>
   <si>
     <t>99,9%</t>
@@ -115,19 +115,19 @@
     <t>96,15%</t>
   </si>
   <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
   </si>
   <si>
     <t>97,64%</t>
   </si>
   <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,49 @@
     <t>0,21%</t>
   </si>
   <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
+    <t>0,54%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
   </si>
   <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
   </si>
   <si>
     <t>99,79%</t>
   </si>
   <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
+    <t>99,46%</t>
   </si>
   <si>
     <t>97,96%</t>
   </si>
   <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
   </si>
   <si>
     <t>98,93%</t>
   </si>
   <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -205,460 +199,490 @@
     <t>1,22%</t>
   </si>
   <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
   </si>
   <si>
     <t>99,57%</t>
   </si>
   <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de fibromialgia en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
   </si>
   <si>
     <t>99,58%</t>
   </si>
   <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de fibromialgia en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de fibromialgia en 2023 (Tasa respuesta: 99,54%)</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
   </si>
   <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de fibromialgia en 2023 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
     <t>92,46%</t>
   </si>
   <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
   </si>
   <si>
     <t>95,06%</t>
   </si>
   <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>0,16%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
   </si>
   <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>2,62%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
   </si>
   <si>
     <t>95,93%</t>
   </si>
   <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227C53F4-2472-4601-8B3F-A9E20A2F07C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CB80BD-ECF5-4C31-A22D-D96DBEF80705}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1352,10 +1376,10 @@
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -1364,13 +1388,13 @@
         <v>35736</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -1379,13 +1403,13 @@
         <v>39939</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1400,13 +1424,13 @@
         <v>1959755</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
         <v>1600</v>
@@ -1415,28 +1439,28 @@
         <v>1718856</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3452</v>
       </c>
       <c r="N8" s="7">
-        <v>3678611</v>
+        <v>3678610</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1478,7 +1502,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1492,7 +1516,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1504,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -1519,13 +1543,13 @@
         <v>5603</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -1534,13 +1558,13 @@
         <v>5603</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1555,10 +1579,10 @@
         <v>481181</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -1570,13 +1594,13 @@
         <v>453028</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>846</v>
@@ -1585,13 +1609,13 @@
         <v>934209</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,13 +1683,13 @@
         <v>7384</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>86</v>
@@ -1674,13 +1698,13 @@
         <v>92791</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>93</v>
@@ -1689,13 +1713,13 @@
         <v>100175</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1710,13 +1734,13 @@
         <v>3412398</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>3205</v>
@@ -1725,28 +1749,28 @@
         <v>3457262</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>6400</v>
       </c>
       <c r="N14" s="7">
-        <v>6869659</v>
+        <v>6869660</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1788,7 +1812,7 @@
         <v>6493</v>
       </c>
       <c r="N15" s="7">
-        <v>6969834</v>
+        <v>6969835</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1802,7 +1826,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1821,7 +1845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4426DAB5-F13C-4A07-B93E-5A1CA2FB1B03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E467057-70EF-44C2-B0EC-307267B1E865}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1838,7 +1862,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1945,13 +1969,13 @@
         <v>989</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H4" s="7">
         <v>47</v>
@@ -1960,13 +1984,13 @@
         <v>50833</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
@@ -1975,13 +1999,13 @@
         <v>51822</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1996,13 +2020,13 @@
         <v>753358</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H5" s="7">
         <v>845</v>
@@ -2011,13 +2035,13 @@
         <v>943827</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M5" s="7">
         <v>1606</v>
@@ -2026,13 +2050,13 @@
         <v>1697185</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2100,13 +2124,13 @@
         <v>10450</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H7" s="7">
         <v>60</v>
@@ -2115,13 +2139,13 @@
         <v>65625</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M7" s="7">
         <v>70</v>
@@ -2130,13 +2154,13 @@
         <v>76076</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2151,13 +2175,13 @@
         <v>2065935</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H8" s="7">
         <v>1848</v>
@@ -2166,13 +2190,13 @@
         <v>1922675</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M8" s="7">
         <v>3790</v>
@@ -2181,13 +2205,13 @@
         <v>3988609</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,7 +2267,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2255,13 +2279,13 @@
         <v>2608</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -2270,13 +2294,13 @@
         <v>8610</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -2285,13 +2309,13 @@
         <v>11218</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,13 +2330,13 @@
         <v>544278</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>518</v>
@@ -2321,13 +2345,13 @@
         <v>540530</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M11" s="7">
         <v>1017</v>
@@ -2336,10 +2360,10 @@
         <v>1084808</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>135</v>
@@ -2410,13 +2434,13 @@
         <v>14048</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H13" s="7">
         <v>115</v>
@@ -2425,13 +2449,13 @@
         <v>125068</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M13" s="7">
         <v>128</v>
@@ -2440,13 +2464,13 @@
         <v>139116</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,13 +2485,13 @@
         <v>3363570</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="H14" s="7">
         <v>3211</v>
@@ -2476,13 +2500,13 @@
         <v>3407032</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="M14" s="7">
         <v>6413</v>
@@ -2491,13 +2515,13 @@
         <v>6770602</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,7 +2577,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2572,7 +2596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02E1894-D4D3-49CB-B89A-4059B8051330}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FD94A4-60FA-42D2-9367-9E498BC319B6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2589,7 +2613,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2696,13 +2720,13 @@
         <v>4911</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H4" s="7">
         <v>105</v>
@@ -2711,13 +2735,13 @@
         <v>62523</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="M4" s="7">
         <v>110</v>
@@ -2726,13 +2750,13 @@
         <v>67435</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,13 +2771,13 @@
         <v>532478</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H5" s="7">
         <v>1313</v>
@@ -2762,13 +2786,13 @@
         <v>766171</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M5" s="7">
         <v>1995</v>
@@ -2777,13 +2801,13 @@
         <v>1298649</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2851,13 +2875,13 @@
         <v>7569</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="H7" s="7">
         <v>128</v>
@@ -2866,13 +2890,13 @@
         <v>76395</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M7" s="7">
         <v>136</v>
@@ -2881,13 +2905,13 @@
         <v>83964</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2926,13 @@
         <v>2151971</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H8" s="7">
         <v>2778</v>
@@ -2917,13 +2941,13 @@
         <v>2163587</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M8" s="7">
         <v>4759</v>
@@ -2932,13 +2956,13 @@
         <v>4315558</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,7 +3018,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3006,13 +3030,13 @@
         <v>2351</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -3021,13 +3045,13 @@
         <v>15007</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -3036,13 +3060,13 @@
         <v>17357</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,13 +3081,13 @@
         <v>670082</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H11" s="7">
         <v>978</v>
@@ -3072,13 +3096,13 @@
         <v>698243</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="M11" s="7">
         <v>1655</v>
@@ -3087,13 +3111,13 @@
         <v>1368325</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,13 +3185,13 @@
         <v>14831</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H13" s="7">
         <v>255</v>
@@ -3176,13 +3200,13 @@
         <v>153925</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="M13" s="7">
         <v>271</v>
@@ -3194,10 +3218,10 @@
         <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,13 +3236,13 @@
         <v>3354531</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="H14" s="7">
         <v>5069</v>
@@ -3227,13 +3251,13 @@
         <v>3628001</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>8409</v>
@@ -3245,10 +3269,10 @@
         <v>27</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,7 +3328,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1414-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1414-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E23B456-E341-4A55-AE95-22C908D48F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85A27D2B-CFEC-492F-9FE8-77388DC8A8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7979B76B-3C69-4C11-A9FE-3CB176C9F4AE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{99E7C6E7-2D2C-4CA6-AF6D-83C24ADB90E3}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="207">
   <si>
     <t>Población con diagnóstico de fibromialgia en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -79,25 +79,25 @@
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,88%</t>
+    <t>0,87%</t>
   </si>
   <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
   </si>
   <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,7 +106,7 @@
     <t>99,67%</t>
   </si>
   <si>
-    <t>99,12%</t>
+    <t>99,13%</t>
   </si>
   <si>
     <t>99,9%</t>
@@ -115,19 +115,19 @@
     <t>96,15%</t>
   </si>
   <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
   </si>
   <si>
     <t>97,64%</t>
   </si>
   <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,49 +139,55 @@
     <t>0,21%</t>
   </si>
   <si>
-    <t>0,54%</t>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
   </si>
   <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
   </si>
   <si>
     <t>99,79%</t>
   </si>
   <si>
-    <t>99,46%</t>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
   </si>
   <si>
     <t>97,96%</t>
   </si>
   <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
   </si>
   <si>
     <t>98,93%</t>
   </si>
   <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -199,7 +205,7 @@
     <t>1,22%</t>
   </si>
   <si>
-    <t>0,36%</t>
+    <t>0,35%</t>
   </si>
   <si>
     <t>3,02%</t>
@@ -208,10 +214,10 @@
     <t>0,6%</t>
   </si>
   <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -226,16 +232,16 @@
     <t>96,98%</t>
   </si>
   <si>
-    <t>99,64%</t>
+    <t>99,65%</t>
   </si>
   <si>
     <t>99,4%</t>
   </si>
   <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
   </si>
   <si>
     <t>0,22%</t>
@@ -250,19 +256,19 @@
     <t>2,61%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
   </si>
   <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
   </si>
   <si>
     <t>99,78%</t>
@@ -277,397 +283,367 @@
     <t>97,39%</t>
   </si>
   <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
   </si>
   <si>
     <t>98,56%</t>
   </si>
   <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población con diagnóstico de fibromialgia en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Población con diagnóstico de fibromialgia en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,13%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
     <t>5,11%</t>
   </si>
   <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
   </si>
   <si>
     <t>2,96%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
   </si>
   <si>
     <t>99,87%</t>
   </si>
   <si>
-    <t>99,34%</t>
-  </si>
-  <si>
     <t>94,89%</t>
   </si>
   <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
   </si>
   <si>
     <t>97,04%</t>
   </si>
   <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
   </si>
   <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>0,25%</t>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de fibromialgia en 2023 (Tasa respuesta: 99,54%)</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
   </si>
   <si>
     <t>99,09%</t>
   </si>
   <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
   </si>
   <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
   </si>
   <si>
     <t>99,76%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de fibromialgia en 2023 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
   </si>
   <si>
     <t>95,93%</t>
@@ -1094,7 +1070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CB80BD-ECF5-4C31-A22D-D96DBEF80705}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B426A9-658E-445A-BC23-BFF0DDB7254D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1376,10 +1352,10 @@
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -1388,13 +1364,13 @@
         <v>35736</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -1403,13 +1379,13 @@
         <v>39939</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1424,13 +1400,13 @@
         <v>1959755</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1600</v>
@@ -1439,28 +1415,28 @@
         <v>1718856</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3452</v>
       </c>
       <c r="N8" s="7">
-        <v>3678610</v>
+        <v>3678611</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1502,7 +1478,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718549</v>
+        <v>3718550</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1516,7 +1492,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1528,13 +1504,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -1543,13 +1519,13 @@
         <v>5603</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -1558,13 +1534,13 @@
         <v>5603</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1579,10 +1555,10 @@
         <v>481181</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -1594,13 +1570,13 @@
         <v>453028</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>846</v>
@@ -1609,13 +1585,13 @@
         <v>934209</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1683,13 +1659,13 @@
         <v>7384</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>86</v>
@@ -1698,13 +1674,13 @@
         <v>92791</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>93</v>
@@ -1713,13 +1689,13 @@
         <v>100175</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1734,13 +1710,13 @@
         <v>3412398</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>3205</v>
@@ -1749,28 +1725,28 @@
         <v>3457262</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>6400</v>
       </c>
       <c r="N14" s="7">
-        <v>6869660</v>
+        <v>6869659</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1812,7 +1788,7 @@
         <v>6493</v>
       </c>
       <c r="N15" s="7">
-        <v>6969835</v>
+        <v>6969834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1826,7 +1802,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1845,7 +1821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E467057-70EF-44C2-B0EC-307267B1E865}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{888FB30E-8065-4C1D-86C1-9AE354A9778D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1862,7 +1838,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1969,13 +1945,13 @@
         <v>989</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="H4" s="7">
         <v>47</v>
@@ -1984,13 +1960,13 @@
         <v>50833</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
@@ -1999,13 +1975,13 @@
         <v>51822</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,13 +1996,13 @@
         <v>753358</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H5" s="7">
         <v>845</v>
@@ -2157,10 +2133,10 @@
         <v>108</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,13 +2151,13 @@
         <v>2065935</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H8" s="7">
         <v>1848</v>
@@ -2190,13 +2166,13 @@
         <v>1922675</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M8" s="7">
         <v>3790</v>
@@ -2205,13 +2181,13 @@
         <v>3988609</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,7 +2243,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2279,13 +2255,13 @@
         <v>2608</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -2294,13 +2270,13 @@
         <v>8610</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -2309,13 +2285,13 @@
         <v>11218</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,13 +2306,13 @@
         <v>544278</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>518</v>
@@ -2345,13 +2321,13 @@
         <v>540530</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M11" s="7">
         <v>1017</v>
@@ -2360,13 +2336,13 @@
         <v>1084808</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,13 +2410,13 @@
         <v>14048</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H13" s="7">
         <v>115</v>
@@ -2449,13 +2425,13 @@
         <v>125068</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="M13" s="7">
         <v>128</v>
@@ -2464,13 +2440,13 @@
         <v>139116</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,13 +2461,13 @@
         <v>3363570</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>3211</v>
@@ -2500,13 +2476,13 @@
         <v>3407032</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="M14" s="7">
         <v>6413</v>
@@ -2515,13 +2491,13 @@
         <v>6770602</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,7 +2553,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2596,7 +2572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FD94A4-60FA-42D2-9367-9E498BC319B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A31B1F1-B9B2-4B7F-93DB-8C4F2EBAE610}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2613,7 +2589,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2720,13 +2696,13 @@
         <v>4911</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="H4" s="7">
         <v>105</v>
@@ -2735,13 +2711,13 @@
         <v>62523</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="M4" s="7">
         <v>110</v>
@@ -2750,13 +2726,13 @@
         <v>67435</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,13 +2747,13 @@
         <v>532478</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H5" s="7">
         <v>1313</v>
@@ -2786,13 +2762,13 @@
         <v>766171</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="M5" s="7">
         <v>1995</v>
@@ -2801,13 +2777,13 @@
         <v>1298649</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,13 +2851,13 @@
         <v>7569</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>171</v>
+        <v>55</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>128</v>
@@ -2890,13 +2866,13 @@
         <v>76395</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="M7" s="7">
         <v>136</v>
@@ -2905,13 +2881,13 @@
         <v>83964</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,13 +2902,13 @@
         <v>2151971</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>180</v>
+        <v>64</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H8" s="7">
         <v>2778</v>
@@ -2941,13 +2917,13 @@
         <v>2163587</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="M8" s="7">
         <v>4759</v>
@@ -2956,13 +2932,13 @@
         <v>4315558</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,7 +2994,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3030,13 +3006,13 @@
         <v>2351</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>171</v>
+        <v>55</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -3045,13 +3021,13 @@
         <v>15007</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -3060,13 +3036,13 @@
         <v>17357</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,13 +3057,13 @@
         <v>670082</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>180</v>
+        <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H11" s="7">
         <v>978</v>
@@ -3096,13 +3072,13 @@
         <v>698243</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="M11" s="7">
         <v>1655</v>
@@ -3111,13 +3087,13 @@
         <v>1368325</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3161,13 @@
         <v>14831</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="H13" s="7">
         <v>255</v>
@@ -3200,13 +3176,13 @@
         <v>153925</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="M13" s="7">
         <v>271</v>
@@ -3218,10 +3194,10 @@
         <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,13 +3212,13 @@
         <v>3354531</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="H14" s="7">
         <v>5069</v>
@@ -3251,13 +3227,13 @@
         <v>3628001</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M14" s="7">
         <v>8409</v>
@@ -3269,10 +3245,10 @@
         <v>27</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,7 +3304,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1414-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1414-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85A27D2B-CFEC-492F-9FE8-77388DC8A8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08CB14FB-4DC3-4016-BF9C-A5EBE4B43FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{99E7C6E7-2D2C-4CA6-AF6D-83C24ADB90E3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{733857A7-C3BF-40BA-9B67-34CA1D96D5B6}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -79,16 +79,16 @@
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,87%</t>
+    <t>0,93%</t>
   </si>
   <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
   </si>
   <si>
     <t>2,36%</t>
@@ -97,7 +97,7 @@
     <t>1,8%</t>
   </si>
   <si>
-    <t>3,15%</t>
+    <t>3,11%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,7 +106,7 @@
     <t>99,67%</t>
   </si>
   <si>
-    <t>99,13%</t>
+    <t>99,07%</t>
   </si>
   <si>
     <t>99,9%</t>
@@ -115,16 +115,16 @@
     <t>96,15%</t>
   </si>
   <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
   </si>
   <si>
     <t>97,64%</t>
   </si>
   <si>
-    <t>96,85%</t>
+    <t>96,89%</t>
   </si>
   <si>
     <t>98,2%</t>
@@ -139,7 +139,7 @@
     <t>0,21%</t>
   </si>
   <si>
-    <t>0,05%</t>
+    <t>0,06%</t>
   </si>
   <si>
     <t>0,53%</t>
@@ -148,19 +148,19 @@
     <t>2,04%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
   </si>
   <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
   </si>
   <si>
     <t>99,79%</t>
@@ -169,25 +169,25 @@
     <t>99,47%</t>
   </si>
   <si>
-    <t>99,95%</t>
+    <t>99,94%</t>
   </si>
   <si>
     <t>97,96%</t>
   </si>
   <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
   </si>
   <si>
     <t>98,93%</t>
   </si>
   <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -205,460 +205,460 @@
     <t>1,22%</t>
   </si>
   <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de fibromialgia en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de fibromialgia en 2023 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
   </si>
   <si>
     <t>99,65%</t>
   </si>
   <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de fibromialgia en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de fibromialgia en 2023 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
+    <t>99,84%</t>
   </si>
   <si>
     <t>96,59%</t>
   </si>
   <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
   </si>
   <si>
     <t>98,09%</t>
   </si>
   <si>
-    <t>97,72%</t>
+    <t>97,69%</t>
   </si>
   <si>
     <t>98,42%</t>
   </si>
   <si>
-    <t>1,04%</t>
+    <t>0,99%</t>
   </si>
   <si>
     <t>2,1%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
   </si>
   <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
   </si>
   <si>
     <t>97,9%</t>
   </si>
   <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>98,75%</t>
   </si>
   <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B426A9-658E-445A-BC23-BFF0DDB7254D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD30401-0EE3-4F39-85EC-2F9352CEC0E6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1821,7 +1821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{888FB30E-8065-4C1D-86C1-9AE354A9778D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C056F-4209-44DC-99A0-824F5C47ECA3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1951,7 +1951,7 @@
         <v>51</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="H4" s="7">
         <v>47</v>
@@ -1960,13 +1960,13 @@
         <v>50833</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
@@ -1975,13 +1975,13 @@
         <v>51822</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1996,10 +1996,10 @@
         <v>753358</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>60</v>
@@ -2011,13 +2011,13 @@
         <v>943827</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M5" s="7">
         <v>1606</v>
@@ -2026,13 +2026,13 @@
         <v>1697185</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2100,13 +2100,13 @@
         <v>10450</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H7" s="7">
         <v>60</v>
@@ -2115,13 +2115,13 @@
         <v>65625</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M7" s="7">
         <v>70</v>
@@ -2130,13 +2130,13 @@
         <v>76076</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2151,13 +2151,13 @@
         <v>2065935</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H8" s="7">
         <v>1848</v>
@@ -2166,13 +2166,13 @@
         <v>1922675</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M8" s="7">
         <v>3790</v>
@@ -2181,13 +2181,13 @@
         <v>3988609</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,13 +2255,13 @@
         <v>2608</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -2270,13 +2270,13 @@
         <v>8610</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -2285,13 +2285,13 @@
         <v>11218</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,10 +2306,10 @@
         <v>544278</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>60</v>
@@ -2321,13 +2321,13 @@
         <v>540530</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M11" s="7">
         <v>1017</v>
@@ -2336,13 +2336,13 @@
         <v>1084808</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,13 +2410,13 @@
         <v>14048</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H13" s="7">
         <v>115</v>
@@ -2425,13 +2425,13 @@
         <v>125068</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M13" s="7">
         <v>128</v>
@@ -2440,13 +2440,13 @@
         <v>139116</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,10 +2461,10 @@
         <v>3363570</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>77</v>
@@ -2476,13 +2476,13 @@
         <v>3407032</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>6413</v>
@@ -2491,13 +2491,13 @@
         <v>6770602</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2572,7 +2572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A31B1F1-B9B2-4B7F-93DB-8C4F2EBAE610}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A264CD-9884-49F5-BE56-6CCF3520F645}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2589,7 +2589,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2696,13 +2696,13 @@
         <v>4911</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H4" s="7">
         <v>105</v>
@@ -2711,13 +2711,13 @@
         <v>62523</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M4" s="7">
         <v>110</v>
@@ -2726,13 +2726,13 @@
         <v>67435</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,13 +2747,13 @@
         <v>532478</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H5" s="7">
         <v>1313</v>
@@ -2762,13 +2762,13 @@
         <v>766171</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M5" s="7">
         <v>1995</v>
@@ -2777,13 +2777,13 @@
         <v>1298649</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2851,13 +2851,13 @@
         <v>7569</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="H7" s="7">
         <v>128</v>
@@ -2866,13 +2866,13 @@
         <v>76395</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M7" s="7">
         <v>136</v>
@@ -2881,13 +2881,13 @@
         <v>83964</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2902,13 @@
         <v>2151971</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>64</v>
+        <v>175</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H8" s="7">
         <v>2778</v>
@@ -2917,13 +2917,13 @@
         <v>2163587</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M8" s="7">
         <v>4759</v>
@@ -2932,13 +2932,13 @@
         <v>4315558</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,13 +3006,13 @@
         <v>2351</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>69</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -3021,13 +3021,13 @@
         <v>15007</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -3036,13 +3036,13 @@
         <v>17357</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,10 +3057,10 @@
         <v>670082</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>64</v>
+        <v>175</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>79</v>
@@ -3072,13 +3072,13 @@
         <v>698243</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M11" s="7">
         <v>1655</v>
@@ -3087,13 +3087,13 @@
         <v>1368325</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,10 +3164,10 @@
         <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H13" s="7">
         <v>255</v>
@@ -3176,13 +3176,13 @@
         <v>153925</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>271</v>
@@ -3194,10 +3194,10 @@
         <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,10 +3215,10 @@
         <v>61</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="H14" s="7">
         <v>5069</v>
@@ -3227,7 +3227,7 @@
         <v>3628001</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>203</v>

--- a/data/trans_orig/P1414-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1414-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08CB14FB-4DC3-4016-BF9C-A5EBE4B43FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA812C43-FBFA-472A-A897-CC487E84898F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{733857A7-C3BF-40BA-9B67-34CA1D96D5B6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E30B8708-A572-4F5F-8623-70A4E050D6EC}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="211">
   <si>
     <t>Población con diagnóstico de fibromialgia en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -487,178 +487,190 @@
     <t>Población con diagnóstico de fibromialgia en 2023 (Tasa respuesta: 99,54%)</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD30401-0EE3-4F39-85EC-2F9352CEC0E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A66A72-FD2D-4A12-A5B1-A3EFCC422031}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1427,7 +1439,7 @@
         <v>3452</v>
       </c>
       <c r="N8" s="7">
-        <v>3678611</v>
+        <v>3678610</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1478,7 +1490,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1582,7 +1594,7 @@
         <v>846</v>
       </c>
       <c r="N11" s="7">
-        <v>934209</v>
+        <v>934210</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>65</v>
@@ -1633,7 +1645,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1737,7 +1749,7 @@
         <v>6400</v>
       </c>
       <c r="N14" s="7">
-        <v>6869659</v>
+        <v>6869660</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>83</v>
@@ -1788,7 +1800,7 @@
         <v>6493</v>
       </c>
       <c r="N15" s="7">
-        <v>6969834</v>
+        <v>6969835</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1821,7 +1833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C056F-4209-44DC-99A0-824F5C47ECA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419E64DE-17CA-4C4C-BC51-501ABACD274D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2333,7 +2345,7 @@
         <v>1017</v>
       </c>
       <c r="N11" s="7">
-        <v>1084808</v>
+        <v>1084809</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>134</v>
@@ -2384,7 +2396,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2572,7 +2584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A264CD-9884-49F5-BE56-6CCF3520F645}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417872F0-C625-4000-B765-B051230D1B9A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2693,46 +2705,46 @@
         <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>4911</v>
+        <v>4836</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H4" s="7">
         <v>105</v>
       </c>
       <c r="I4" s="7">
-        <v>62523</v>
+        <v>55688</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M4" s="7">
         <v>110</v>
       </c>
       <c r="N4" s="7">
-        <v>67435</v>
+        <v>60524</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,46 +2756,46 @@
         <v>682</v>
       </c>
       <c r="D5" s="7">
-        <v>532478</v>
+        <v>506013</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H5" s="7">
         <v>1313</v>
       </c>
       <c r="I5" s="7">
-        <v>766171</v>
+        <v>693357</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M5" s="7">
         <v>1995</v>
       </c>
       <c r="N5" s="7">
-        <v>1298649</v>
+        <v>1199370</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,7 +2807,7 @@
         <v>687</v>
       </c>
       <c r="D6" s="7">
-        <v>537389</v>
+        <v>510849</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2810,7 +2822,7 @@
         <v>1418</v>
       </c>
       <c r="I6" s="7">
-        <v>828694</v>
+        <v>749045</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2825,7 +2837,7 @@
         <v>2105</v>
       </c>
       <c r="N6" s="7">
-        <v>1366084</v>
+        <v>1259894</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2848,46 +2860,46 @@
         <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>7569</v>
+        <v>7096</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H7" s="7">
         <v>128</v>
       </c>
       <c r="I7" s="7">
-        <v>76395</v>
+        <v>70009</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M7" s="7">
         <v>136</v>
       </c>
       <c r="N7" s="7">
-        <v>83964</v>
+        <v>77106</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,13 +2911,13 @@
         <v>1981</v>
       </c>
       <c r="D8" s="7">
-        <v>2151971</v>
+        <v>2281026</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>176</v>
@@ -2914,7 +2926,7 @@
         <v>2778</v>
       </c>
       <c r="I8" s="7">
-        <v>2163587</v>
+        <v>2159121</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>177</v>
@@ -2929,7 +2941,7 @@
         <v>4759</v>
       </c>
       <c r="N8" s="7">
-        <v>4315558</v>
+        <v>4440146</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>180</v>
@@ -2950,7 +2962,7 @@
         <v>1989</v>
       </c>
       <c r="D9" s="7">
-        <v>2159540</v>
+        <v>2288122</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2965,7 +2977,7 @@
         <v>2906</v>
       </c>
       <c r="I9" s="7">
-        <v>2239982</v>
+        <v>2229130</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2980,7 +2992,7 @@
         <v>4895</v>
       </c>
       <c r="N9" s="7">
-        <v>4399522</v>
+        <v>4517252</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3003,46 +3015,46 @@
         <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>2351</v>
+        <v>2372</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>69</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
       </c>
       <c r="I10" s="7">
-        <v>15007</v>
+        <v>13324</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
       </c>
       <c r="N10" s="7">
-        <v>17357</v>
+        <v>15696</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,13 +3066,13 @@
         <v>677</v>
       </c>
       <c r="D11" s="7">
-        <v>670082</v>
+        <v>643670</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>79</v>
@@ -3069,31 +3081,31 @@
         <v>978</v>
       </c>
       <c r="I11" s="7">
-        <v>698243</v>
+        <v>646496</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M11" s="7">
         <v>1655</v>
       </c>
       <c r="N11" s="7">
-        <v>1368325</v>
+        <v>1290166</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3105,7 +3117,7 @@
         <v>680</v>
       </c>
       <c r="D12" s="7">
-        <v>672433</v>
+        <v>646042</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3120,7 +3132,7 @@
         <v>1000</v>
       </c>
       <c r="I12" s="7">
-        <v>713250</v>
+        <v>659820</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3135,7 +3147,7 @@
         <v>1680</v>
       </c>
       <c r="N12" s="7">
-        <v>1385682</v>
+        <v>1305862</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3158,46 +3170,46 @@
         <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>14831</v>
+        <v>14305</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>255</v>
       </c>
       <c r="I13" s="7">
-        <v>153925</v>
+        <v>139021</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>19</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M13" s="7">
         <v>271</v>
       </c>
       <c r="N13" s="7">
-        <v>168756</v>
+        <v>153325</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>17</v>
+        <v>203</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>201</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,46 +3221,46 @@
         <v>3340</v>
       </c>
       <c r="D14" s="7">
-        <v>3354531</v>
+        <v>3430708</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="H14" s="7">
         <v>5069</v>
       </c>
       <c r="I14" s="7">
-        <v>3628001</v>
+        <v>3498974</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>204</v>
+        <v>28</v>
       </c>
       <c r="M14" s="7">
         <v>8409</v>
       </c>
       <c r="N14" s="7">
-        <v>6982532</v>
+        <v>6929683</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>27</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>205</v>
+        <v>118</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,7 +3272,7 @@
         <v>3356</v>
       </c>
       <c r="D15" s="7">
-        <v>3369362</v>
+        <v>3445013</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3275,7 +3287,7 @@
         <v>5324</v>
       </c>
       <c r="I15" s="7">
-        <v>3781926</v>
+        <v>3637995</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3290,7 +3302,7 @@
         <v>8680</v>
       </c>
       <c r="N15" s="7">
-        <v>7151288</v>
+        <v>7083008</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
